--- a/files/SI_Data_2__TCS_tagRNASeq.xlsx
+++ b/files/SI_Data_2__TCS_tagRNASeq.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsun/Google Drive/projects/HuoberBrezel/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonk414/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB5C3ED-2B6E-CF4C-8C7F-F6B5D5C11FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE14B4-823E-FF4B-998A-BF87794AAFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="900" windowWidth="23000" windowHeight="16380" activeTab="4" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
+    <workbookView xWindow="4640" yWindow="600" windowWidth="22500" windowHeight="16380" activeTab="2" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Trimmomatic" sheetId="1" r:id="rId1"/>
     <sheet name="HISAT2" sheetId="2" r:id="rId2"/>
     <sheet name="STAR" sheetId="4" r:id="rId3"/>
     <sheet name="EAGLE-RC" sheetId="3" r:id="rId4"/>
-    <sheet name="Overlap" sheetId="5" r:id="rId5"/>
+    <sheet name="EAGLE-RC(ngi)" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Overlap" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="69">
   <si>
     <t>library name</t>
   </si>
@@ -208,6 +210,42 @@
   </si>
   <si>
     <t>Simpson index</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_16.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_17.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_18.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_1.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_2.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/20181109.A-TaeRS_1_Tae_RS1_3.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g086.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g091.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g160.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g165.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g167.clean.fastq.gz</t>
+  </si>
+  <si>
+    <t>/home/jqsun/projects/HuoberBrezel/data/tagseq/clean_fastq/TaeRS2728_g172.clean.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -342,7 +380,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,14 +450,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1577,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80248D09-AE0A-CD48-A8B1-FBE91CE136FB}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,6 +1632,7 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="9" width="11.1640625" customWidth="1"/>
     <col min="10" max="12" width="19" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1"/>
     <col min="19" max="19" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1707,18 +1748,18 @@
         <v>2.913078329970481E-2</v>
       </c>
       <c r="P2">
-        <v>205.24299999999999</v>
+        <v>218.63</v>
       </c>
       <c r="Q2" s="24">
-        <f t="shared" ref="Q2:Q7" si="3">P2/E2*1000000</f>
-        <v>1579.1567284758021</v>
+        <f>P2/D2*1000000</f>
+        <v>83.568728331874453</v>
       </c>
       <c r="R2" s="41">
         <f>Q2/60</f>
-        <v>26.319278807930036</v>
+        <v>1.3928121388645742</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S7" si="4">(J2+K2+L2)/D2</f>
+        <f t="shared" ref="S2:S7" si="3">(J2+K2+L2)/D2</f>
         <v>0.63993318477010286</v>
       </c>
     </row>
@@ -1736,7 +1777,7 @@
         <v>2116056</v>
       </c>
       <c r="E3" s="44">
-        <f t="shared" ref="E3:E7" si="5">D3-F3-G3</f>
+        <f t="shared" ref="E3:E7" si="4">D3-F3-G3</f>
         <v>126248</v>
       </c>
       <c r="F3" s="4">
@@ -1750,7 +1791,7 @@
         <v>0.71369498966734479</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I7" si="6">F3/D3</f>
+        <f t="shared" ref="I3:I7" si="5">F3/D3</f>
         <v>0.67111456407580894</v>
       </c>
       <c r="J3" s="4">
@@ -1775,18 +1816,18 @@
         <v>3.0948550773979754E-2</v>
       </c>
       <c r="P3">
-        <v>205.34399999999999</v>
+        <v>220.864</v>
       </c>
       <c r="Q3" s="24">
-        <f t="shared" si="3"/>
-        <v>1626.5128952537862</v>
+        <f t="shared" ref="Q3:Q7" si="6">P3/D3*1000000</f>
+        <v>104.37530953812187</v>
       </c>
       <c r="R3" s="41">
         <f>Q3/60</f>
-        <v>27.10854825422977</v>
+        <v>1.7395884923020311</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.66626592112874139</v>
       </c>
     </row>
@@ -1804,7 +1845,7 @@
         <v>2448737</v>
       </c>
       <c r="E4" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>139764</v>
       </c>
       <c r="F4" s="4">
@@ -1818,7 +1859,7 @@
         <v>0.69813072738399284</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.65828425020735182</v>
       </c>
       <c r="J4">
@@ -1843,18 +1884,18 @@
         <v>3.1331644898859527E-2</v>
       </c>
       <c r="P4">
-        <v>196.245</v>
+        <v>217.822</v>
       </c>
       <c r="Q4" s="24">
+        <f t="shared" si="6"/>
+        <v>88.952794848936406</v>
+      </c>
+      <c r="R4" s="41">
+        <f>Q4/60</f>
+        <v>1.4825465808156069</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="3"/>
-        <v>1404.1169399845455</v>
-      </c>
-      <c r="R4" s="41">
-        <f t="shared" ref="R4:R6" si="8">Q4/60</f>
-        <v>23.401948999742427</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="4"/>
         <v>0.65352016161800963</v>
       </c>
     </row>
@@ -1872,7 +1913,7 @@
         <v>1388788</v>
       </c>
       <c r="E5" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77901</v>
       </c>
       <c r="F5" s="4">
@@ -1886,7 +1927,7 @@
         <v>0.69942413037889617</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.66019147630883912</v>
       </c>
       <c r="J5" s="4">
@@ -1911,18 +1952,18 @@
         <v>3.5766872513900184E-2</v>
       </c>
       <c r="P5">
-        <v>199.904</v>
+        <v>204.60400000000001</v>
       </c>
       <c r="Q5" s="24">
+        <f t="shared" si="6"/>
+        <v>147.32558173025689</v>
+      </c>
+      <c r="R5" s="41">
+        <f t="shared" ref="R4:R6" si="8">Q5/60</f>
+        <v>2.455426362170948</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="3"/>
-        <v>2566.1288045082861</v>
-      </c>
-      <c r="R5" s="41">
-        <f t="shared" si="8"/>
-        <v>42.768813408471438</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="4"/>
         <v>0.65529080032373554</v>
       </c>
     </row>
@@ -1940,7 +1981,7 @@
         <v>1557764</v>
       </c>
       <c r="E6" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>94086</v>
       </c>
       <c r="F6" s="4">
@@ -1954,7 +1995,7 @@
         <v>0.68308261789819891</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.64182571942861688</v>
       </c>
       <c r="J6" s="4">
@@ -1979,18 +2020,18 @@
         <v>3.7626848508079971E-2</v>
       </c>
       <c r="P6">
-        <v>204.929</v>
+        <v>214.79599999999999</v>
       </c>
       <c r="Q6" s="24">
-        <f t="shared" si="3"/>
-        <v>2178.1030121378312</v>
+        <f t="shared" si="6"/>
+        <v>137.88738217085512</v>
       </c>
       <c r="R6" s="41">
         <f t="shared" si="8"/>
-        <v>36.301716868963851</v>
+        <v>2.2981230361809186</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.63638651297629167</v>
       </c>
     </row>
@@ -2008,7 +2049,7 @@
         <v>2763351</v>
       </c>
       <c r="E7" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>162694</v>
       </c>
       <c r="F7" s="4">
@@ -2022,7 +2063,7 @@
         <v>0.65556434393309071</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.61696758754135828</v>
       </c>
       <c r="J7" s="13">
@@ -2047,18 +2088,18 @@
         <v>3.7437009722470251E-2</v>
       </c>
       <c r="P7">
-        <v>193.45599999999999</v>
+        <v>209.374</v>
       </c>
       <c r="Q7" s="24">
-        <f t="shared" si="3"/>
-        <v>1189.0788842858371</v>
+        <f t="shared" si="6"/>
+        <v>75.768152507589519</v>
       </c>
       <c r="R7" s="41">
         <f>Q7/60</f>
-        <v>19.817981404763952</v>
+        <v>1.2628025417931588</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.61198667849288779</v>
       </c>
     </row>
@@ -2097,15 +2138,15 @@
       </c>
       <c r="P8" s="40">
         <f t="shared" si="10"/>
-        <v>200.85349999999997</v>
+        <v>214.34833333333336</v>
       </c>
       <c r="Q8" s="40">
         <f t="shared" si="10"/>
-        <v>1757.1828774410149</v>
+        <v>106.31299152127239</v>
       </c>
       <c r="R8" s="40">
         <f t="shared" si="10"/>
-        <v>29.286381290683579</v>
+        <v>1.7718831920212061</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="10"/>
@@ -2147,15 +2188,15 @@
       </c>
       <c r="P9" s="23">
         <f t="shared" si="12"/>
-        <v>5.1556731762205423</v>
+        <v>6.2088545051939033</v>
       </c>
       <c r="Q9" s="23">
         <f t="shared" si="12"/>
-        <v>515.3121248142686</v>
+        <v>29.780511879123054</v>
       </c>
       <c r="R9" s="23">
         <f t="shared" si="12"/>
-        <v>8.5885354135711456</v>
+        <v>0.49634186465205188</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="12"/>
@@ -2181,7 +2222,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3018,11 +3059,945 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E193E5F-4E78-7F49-8C80-32B5F5BBF5F8}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2616170</v>
+      </c>
+      <c r="E2" s="46">
+        <v>1803766</v>
+      </c>
+      <c r="F2" s="8">
+        <v>511305</v>
+      </c>
+      <c r="G2" s="29">
+        <f>D2-E2-F2</f>
+        <v>301099</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1912244</v>
+      </c>
+      <c r="I2" s="4">
+        <v>382098</v>
+      </c>
+      <c r="J2" s="4">
+        <f>D2-H2-I2</f>
+        <v>321828</v>
+      </c>
+      <c r="K2" s="46">
+        <v>1634313</v>
+      </c>
+      <c r="L2" s="8">
+        <v>517307</v>
+      </c>
+      <c r="M2" s="29">
+        <f>D2-K2-L2</f>
+        <v>464550</v>
+      </c>
+      <c r="N2" s="4">
+        <v>919244</v>
+      </c>
+      <c r="O2" s="4">
+        <v>865208</v>
+      </c>
+      <c r="P2" s="4">
+        <v>226635</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>N2/(N2+O2+P2)</f>
+        <v>0.45708813194058734</v>
+      </c>
+      <c r="R2" s="3">
+        <f>O2/(N2+O2+P2)</f>
+        <v>0.43021908052709801</v>
+      </c>
+      <c r="S2" s="3">
+        <f>P2/(N2+O2+P2)</f>
+        <v>0.11269278753231461</v>
+      </c>
+      <c r="T2" s="3">
+        <f>(N2+O2+P2)/D2</f>
+        <v>0.76871418906263733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2116056</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1494715</v>
+      </c>
+      <c r="F3" s="8">
+        <v>324255</v>
+      </c>
+      <c r="G3" s="29">
+        <f>D3-E3-F3</f>
+        <v>297086</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1509260</v>
+      </c>
+      <c r="I3" s="4">
+        <v>297343</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J7" si="0">D3-H3-I3</f>
+        <v>309453</v>
+      </c>
+      <c r="K3" s="28">
+        <v>1287229</v>
+      </c>
+      <c r="L3" s="8">
+        <v>382481</v>
+      </c>
+      <c r="M3" s="29">
+        <f t="shared" ref="M3:M7" si="1">D3-K3-L3</f>
+        <v>446346</v>
+      </c>
+      <c r="N3" s="4">
+        <v>750772</v>
+      </c>
+      <c r="O3" s="4">
+        <v>736907</v>
+      </c>
+      <c r="P3" s="4">
+        <v>186359</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q7" si="2">N3/(N3+O3+P3)</f>
+        <v>0.44847966414143525</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R7" si="3">O3/(N3+O3+P3)</f>
+        <v>0.4401972954018965</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S7" si="4">P3/(N3+O3+P3)</f>
+        <v>0.11132304045666824</v>
+      </c>
+      <c r="T3" s="3">
+        <f>(N3+O3+P3)/D3</f>
+        <v>0.79111233351102239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2448737</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1702856</v>
+      </c>
+      <c r="F4" s="8">
+        <v>419983</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" ref="G4:G7" si="5">D4-E4-F4</f>
+        <v>325898</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1764631</v>
+      </c>
+      <c r="I4" s="4">
+        <v>343031</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>341075</v>
+      </c>
+      <c r="K4" s="28">
+        <v>1507651</v>
+      </c>
+      <c r="L4" s="8">
+        <v>449492</v>
+      </c>
+      <c r="M4" s="29">
+        <f t="shared" si="1"/>
+        <v>491594</v>
+      </c>
+      <c r="N4" s="4">
+        <v>861104</v>
+      </c>
+      <c r="O4" s="4">
+        <v>828310</v>
+      </c>
+      <c r="P4" s="4">
+        <v>207739</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45389275403723367</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43660685247842423</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10950039348434207</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4:T7" si="6">(N4+O4+P4)/D4</f>
+        <v>0.77474755353474056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43581</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1388788</v>
+      </c>
+      <c r="E5" s="28">
+        <v>948977</v>
+      </c>
+      <c r="F5" s="8">
+        <v>249104</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="5"/>
+        <v>190707</v>
+      </c>
+      <c r="H5" s="4">
+        <v>986774</v>
+      </c>
+      <c r="I5" s="4">
+        <v>201038</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>200976</v>
+      </c>
+      <c r="K5" s="28">
+        <v>834414</v>
+      </c>
+      <c r="L5" s="8">
+        <v>266179</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" si="1"/>
+        <v>288195</v>
+      </c>
+      <c r="N5" s="4">
+        <v>493790</v>
+      </c>
+      <c r="O5" s="4">
+        <v>467587</v>
+      </c>
+      <c r="P5" s="4">
+        <v>131420</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45185885393170006</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42788093305527009</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12026021301302987</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78687099830931717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43581</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1557764</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1051768</v>
+      </c>
+      <c r="F6" s="8">
+        <v>284896</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="5"/>
+        <v>221100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1063606</v>
+      </c>
+      <c r="I6" s="4">
+        <v>262566</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>231592</v>
+      </c>
+      <c r="K6" s="28">
+        <v>887194</v>
+      </c>
+      <c r="L6" s="8">
+        <v>343033</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="1"/>
+        <v>327537</v>
+      </c>
+      <c r="N6" s="4">
+        <v>537549</v>
+      </c>
+      <c r="O6" s="4">
+        <v>523676</v>
+      </c>
+      <c r="P6" s="4">
+        <v>172213</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.43581355528206528</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42456613141479344</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13962031330314131</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="6"/>
+        <v>0.79180029837639077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43581</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2763351</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1823041</v>
+      </c>
+      <c r="F7" s="13">
+        <v>568665</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="5"/>
+        <v>371645</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1876405</v>
+      </c>
+      <c r="I7" s="13">
+        <v>497799</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>389147</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1555040</v>
+      </c>
+      <c r="L7" s="13">
+        <v>659616</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" si="1"/>
+        <v>548695</v>
+      </c>
+      <c r="N7" s="4">
+        <v>926500</v>
+      </c>
+      <c r="O7" s="4">
+        <v>899985</v>
+      </c>
+      <c r="P7" s="4">
+        <v>318682</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.43190110606773274</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.41954076302684129</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14855813090542602</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.77629190066698006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="34">
+        <f>AVERAGE(Q2:Q7)</f>
+        <v>0.44650567756679238</v>
+      </c>
+      <c r="R8" s="34">
+        <f t="shared" ref="R8:T8" si="7">AVERAGE(R2:R7)</f>
+        <v>0.42983517598405391</v>
+      </c>
+      <c r="S8" s="34">
+        <f t="shared" si="7"/>
+        <v>0.1236591464491537</v>
+      </c>
+      <c r="T8" s="19">
+        <f t="shared" si="7"/>
+        <v>0.78158954557684801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="14">
+        <f>STDEV(Q2:Q7)</f>
+        <v>1.0263774619183517E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" ref="R9:T9" si="8">STDEV(R2:R7)</f>
+        <v>7.6280185933621063E-3</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6487460976554572E-2</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="8"/>
+        <v>9.6279739073314077E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="45"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="45"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2616170</v>
+      </c>
+      <c r="E14" s="58">
+        <v>137.916</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50">
+        <v>1244.1380000000001</v>
+      </c>
+      <c r="H14" s="47">
+        <f>E14+F14+G14</f>
+        <v>1382.0540000000001</v>
+      </c>
+      <c r="I14" s="24">
+        <f>(H14/60)/D14*1000000</f>
+        <v>8.8045629042964855</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2116056</v>
+      </c>
+      <c r="E15" s="58">
+        <v>135.49299999999999</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0</v>
+      </c>
+      <c r="G15" s="50">
+        <v>933.71299999999997</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" ref="H15:H19" si="9">E15+F15+G15</f>
+        <v>1069.2059999999999</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" ref="I15:I19" si="10">(H15/60)/D15*1000000</f>
+        <v>8.421374481582717</v>
+      </c>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43434</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2448737</v>
+      </c>
+      <c r="E16" s="58">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <v>1085.193</v>
+      </c>
+      <c r="H16" s="47">
+        <f t="shared" si="9"/>
+        <v>1220.3330000000001</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="10"/>
+        <v>8.3058667930991916</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43581</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1388788</v>
+      </c>
+      <c r="E17" s="58">
+        <v>147.203</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0</v>
+      </c>
+      <c r="G17" s="50">
+        <v>737.12199999999996</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="9"/>
+        <v>884.32499999999993</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="10"/>
+        <v>10.612670904414497</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43581</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1557764</v>
+      </c>
+      <c r="E18" s="58">
+        <v>119.923</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50">
+        <v>783.39700000000005</v>
+      </c>
+      <c r="H18" s="47">
+        <f t="shared" si="9"/>
+        <v>903.32</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="10"/>
+        <v>9.6647074481971167</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43581</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2763351</v>
+      </c>
+      <c r="E19" s="59">
+        <v>143.86099999999999</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0</v>
+      </c>
+      <c r="G19" s="52">
+        <v>1408.6849999999999</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="9"/>
+        <v>1552.5459999999998</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="10"/>
+        <v>9.3639087711501947</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="24">
+        <f>AVERAGE(I14:I19)</f>
+        <v>9.1955152171233667</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="39">
+        <f>STDEV(I14:I19)</f>
+        <v>0.87183024591443814</v>
+      </c>
+      <c r="J21" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01CA8CE-4008-3049-9A11-80DB4D2EB95D}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M7:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>218.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>220.864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>217.822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>204.60400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11">
+        <v>214.79599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12">
+        <v>209.374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E28444-C349-BA46-B8D9-392EDE9D2930}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3038,51 +4013,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3296,7 +4271,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3313,15 +4288,15 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <f>C3/(B3+C3+D3)</f>
         <v>0.25560282899514603</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <f>F3/(E3+F3+G3)</f>
         <v>0.26758275028175776</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <f>I3/(H3+I3+J3)</f>
         <v>0.15791266580084737</v>
       </c>
@@ -3330,15 +4305,15 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <f t="shared" ref="B14:B18" si="0">C4/(B4+C4+D4)</f>
         <v>0.24319582905626019</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <f t="shared" ref="C14:C18" si="1">F4/(E4+F4+G4)</f>
         <v>0.25364756454920867</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <f t="shared" ref="D14:D18" si="2">I4/(H4+I4+J4)</f>
         <v>0.13750215501317636</v>
       </c>
@@ -3347,15 +4322,15 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <f t="shared" si="0"/>
         <v>0.2457142200423183</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <f t="shared" si="1"/>
         <v>0.25548062067575739</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <f t="shared" si="2"/>
         <v>0.14102292020373514</v>
       </c>
@@ -3364,15 +4339,15 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="56">
         <f t="shared" si="0"/>
         <v>0.22909658763340551</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <f t="shared" si="1"/>
         <v>0.24691413790808031</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <f t="shared" si="2"/>
         <v>0.16963542533710671</v>
       </c>
@@ -3381,15 +4356,15 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <f t="shared" si="0"/>
         <v>0.22470049043843235</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="56">
         <f t="shared" si="1"/>
         <v>0.24263821480738745</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <f t="shared" si="2"/>
         <v>0.13456743039868571</v>
       </c>
@@ -3398,44 +4373,44 @@
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <f t="shared" si="0"/>
         <v>0.22732323484891914</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <f t="shared" si="1"/>
         <v>0.24308033574073643</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <f t="shared" si="2"/>
         <v>0.13017528213219909</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="57">
+      <c r="B19" s="56">
         <f>AVERAGE(B13:B18)</f>
         <v>0.23760553183574692</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="56">
         <f t="shared" ref="C19:D19" si="3">AVERAGE(C13:C18)</f>
         <v>0.25155727066048805</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="56">
         <f t="shared" si="3"/>
         <v>0.14513597981429172</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="58">
+      <c r="B20" s="57">
         <f>STDEV(B13:B18)</f>
         <v>1.2373946894334671E-2</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="57">
         <f t="shared" ref="C20:D20" si="4">STDEV(C13:C18)</f>
         <v>9.4820321205549771E-3</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="57">
         <f t="shared" si="4"/>
         <v>1.5324332207725206E-2</v>
       </c>
@@ -3446,7 +4421,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3463,15 +4438,15 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="56">
         <f>C3/(C3+D3)</f>
         <v>0.85242796695547052</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="56">
         <f>F3/(F3+G3)</f>
         <v>0.8234302424270481</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="56">
         <f>I3/(I3+J3)</f>
         <v>0.73574050193433194</v>
       </c>
@@ -3480,15 +4455,15 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="56">
         <f t="shared" ref="B25:B29" si="5">C4/(C4+D4)</f>
         <v>0.85671091407762279</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="56">
         <f t="shared" ref="C25:C29" si="6">F4/(F4+G4)</f>
         <v>0.8548725575032774</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="56">
         <f t="shared" ref="D25:D29" si="7">I4/(I4+J4)</f>
         <v>0.74509542239423465</v>
       </c>
@@ -3497,15 +4472,15 @@
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="56">
         <f t="shared" si="5"/>
         <v>0.85390336552115875</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="56">
         <f t="shared" si="6"/>
         <v>0.84568656138962139</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="56">
         <f t="shared" si="7"/>
         <v>0.74654533198517026</v>
       </c>
@@ -3514,15 +4489,15 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="56">
         <f t="shared" si="5"/>
         <v>0.85824582288168016</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="56">
         <f t="shared" si="6"/>
         <v>0.83356608558862244</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="56">
         <f t="shared" si="7"/>
         <v>0.76147063219249733</v>
       </c>
@@ -3531,15 +4506,15 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="56">
         <f t="shared" si="5"/>
         <v>0.85787558040443135</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="56">
         <f t="shared" si="6"/>
         <v>0.85283820955238809</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="56">
         <f t="shared" si="7"/>
         <v>0.75830715820796823</v>
       </c>
@@ -3548,44 +4523,44 @@
       <c r="A29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <f t="shared" si="5"/>
         <v>0.85913097191746723</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <f t="shared" si="6"/>
         <v>0.84370769791193523</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="57">
         <f t="shared" si="7"/>
         <v>0.745872641509434</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="57">
+      <c r="B30" s="56">
         <f>AVERAGE(B24:B29)</f>
         <v>0.85638243695963834</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="56">
         <f t="shared" ref="C30:D30" si="8">AVERAGE(C24:C29)</f>
         <v>0.84235022572881546</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="56">
         <f t="shared" si="8"/>
         <v>0.74883861470393942</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="58">
+      <c r="B31" s="57">
         <f>STDEV(B24:B29)</f>
         <v>2.6513262448664122E-3</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="57">
         <f t="shared" ref="C31:D31" si="9">STDEV(C24:C29)</f>
         <v>1.1957485941989943E-2</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="57">
         <f t="shared" si="9"/>
         <v>9.4746965263319827E-3</v>
       </c>
